--- a/dist/app/templates/Incoming Inspection Report Template.xlsx
+++ b/dist/app/templates/Incoming Inspection Report Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Documents\Pragmatic\Projects\DBA-Automation-Tools\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Documents\Pragmatic\Projects\DBA-Automation-Tools\dist\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156E8CF0-E8B7-4D96-899C-770E18DFEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C2B5C-F611-4829-BB22-DF7347532DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{15743D00-1243-4842-A51F-99BD1D884D92}"/>
+    <workbookView xWindow="4365" yWindow="2175" windowWidth="19380" windowHeight="12045" xr2:uid="{15743D00-1243-4842-A51F-99BD1D884D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -608,10 +608,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,38 +626,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -660,7 +657,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2242,74 +2251,74 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="37"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="F4"/>
       <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="F5"/>
       <c r="G5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="F6"/>
       <c r="G6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2318,24 +2327,24 @@
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="38"/>
       <c r="F10"/>
       <c r="G10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -2347,13 +2356,13 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2386,10 +2395,10 @@
       <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2446,28 +2455,28 @@
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2476,18 +2485,18 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="1"/>
       <c r="F30" s="20" t="s">
         <v>33</v>
@@ -2503,10 +2512,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="9"/>
@@ -2515,10 +2524,10 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="11"/>
@@ -2527,10 +2536,10 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="11"/>
@@ -2539,10 +2548,10 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="11"/>
@@ -2551,10 +2560,10 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="38"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="11"/>
@@ -2563,10 +2572,10 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="38"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="11"/>
@@ -2575,10 +2584,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="11"/>
@@ -2587,10 +2596,10 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="38"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="11"/>
@@ -2599,10 +2608,10 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="38"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="36"/>
@@ -2677,8 +2686,8 @@
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2688,8 +2697,8 @@
       <c r="A48" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
       <c r="E48" s="27" t="s">
         <v>0</v>
       </c>
@@ -2818,16 +2827,16 @@
       <c r="C63" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="47" t="s">
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="48"/>
+      <c r="I63" s="46"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32">
@@ -2837,56 +2846,56 @@
       <c r="C64" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="45" t="s">
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="46"/>
+      <c r="I64" s="49"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -2895,13 +2904,22 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D68:G68"/>
     <mergeCell ref="D69:G69"/>
     <mergeCell ref="H64:I64"/>
@@ -2915,16 +2933,6 @@
     <mergeCell ref="D65:G65"/>
     <mergeCell ref="D66:G66"/>
     <mergeCell ref="D67:G67"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H3:I3"/>
@@ -2934,6 +2942,7 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 I48:I58 G31:G45 H20" xr:uid="{A2768D5E-7F4E-4F68-AD3A-243C35C18AF4}">
